--- a/public/informes/1825/1825_0_1/1825_0_1 2021-10-13.xlsx
+++ b/public/informes/1825/1825_0_1/1825_0_1 2021-10-13.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.26.0.12\samba-share\CARPETA COMÚ\INFORMES MOTLLES\Terminados\1825\1825_0_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.26.0.13\CompartidaFabrica\INFORMES MOTLLES\Terminados\1825\1825_0_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21736" windowHeight="8939"/>
   </bookViews>
   <sheets>
     <sheet name="MOLDE" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>DENOMINACIÓ</t>
   </si>
@@ -80,12 +80,6 @@
     <t>Se mecaniza sistema de evacuacion de gases en parte fija con 8 sectores de 6mm en cada una de las figuras.</t>
   </si>
   <si>
-    <t>08/10/2021 Taller</t>
-  </si>
-  <si>
-    <t>07/10/2021 Taller, Procedente de Cornella</t>
-  </si>
-  <si>
     <t>Planificacio:S’ha de canviar la versió i posar la 1825/0/1 per comanda de AJMAL.</t>
   </si>
   <si>
@@ -98,23 +92,26 @@
     <t>INTERN</t>
   </si>
   <si>
-    <t>13/10/2021 Taller</t>
-  </si>
-  <si>
     <t>Este molde tenemos fugas de agua en ambas partes,</t>
   </si>
   <si>
     <t>Abrir molde y desmontar completo, limpiar, cambiar toricas, poner pasta, montar, comprobar circuito, con agua a 20kg. ok.</t>
   </si>
   <si>
-    <t>13/10/2021 De Taller a Injeccion.</t>
+    <t>Se guardan en estantería</t>
+  </si>
+  <si>
+    <t>Intern</t>
+  </si>
+  <si>
+    <t>Recibidos posticería para cambio 0/1 marcada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,14 +152,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF2F5496"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -203,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -220,9 +210,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -238,38 +225,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,55 +613,55 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="46.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="46.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="8" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:7" ht="51.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="F3" s="22">
+      <c r="C3" s="25"/>
+      <c r="F3" s="12">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -675,7 +677,7 @@
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -685,202 +687,213 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>44214</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="D6" s="15"/>
+      <c r="E6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>44217</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15">
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13">
         <v>44223</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>21</v>
+      <c r="E8" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" ht="60.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>44477</v>
+      </c>
+      <c r="B9" s="13">
+        <v>44476</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="D9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" ht="48.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>44482</v>
+      </c>
+      <c r="B10" s="21">
+        <v>44482</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>44599</v>
+      </c>
+      <c r="B11" s="26">
+        <v>44599</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="E11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="10"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+    <row r="20" spans="1:7" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
